--- a/day01/CNM/CNM_registers.xlsx
+++ b/day01/CNM/CNM_registers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>Table 1</t>
   </si>
@@ -21,6 +21,54 @@
     <t>Реестры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Продукт «Онлайн-кинотеатр» (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cinema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Префикс</t>
+  </si>
+  <si>
+    <t>CNM</t>
+  </si>
+  <si>
     <t>Содержание</t>
   </si>
   <si>
@@ -30,9 +78,6 @@
     <t>Наименование реестра/артефакта</t>
   </si>
   <si>
-    <t>Префикс</t>
-  </si>
-  <si>
     <t>Имя файла</t>
   </si>
   <si>
@@ -57,10 +102,7 @@
     <t>CNM_registers.xlsx</t>
   </si>
   <si>
-    <t>Информация</t>
-  </si>
-  <si>
-    <t>CNM</t>
+    <t>Источники</t>
   </si>
   <si>
     <t>Антонов А.А.</t>
@@ -81,6 +123,56 @@
     <t>Стейкхолдеры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Реестр источников информации </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Продукт «Онлайн-кинотеатр» (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cinema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>Источник</t>
   </si>
   <si>
@@ -196,6 +288,56 @@
   </si>
   <si>
     <t>Обязательные к исполнению , контролируются при каждом релизе</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Реестр стейкхолдеров </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Продукта «Онлайн-кинотеатр» (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cinema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Наименование</t>
@@ -350,7 +492,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -366,6 +508,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -507,7 +654,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -554,6 +701,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1683,21 +1836,27 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="46.75" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" t="s" s="3">
+        <v>2</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>4</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1709,28 +1868,28 @@
     </row>
     <row r="4" ht="44.05" customHeight="1">
       <c r="A4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>5</v>
-      </c>
       <c r="D4" t="s" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="44.05" customHeight="1">
@@ -1738,22 +1897,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -1762,18 +1921,18 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" t="s" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -1782,22 +1941,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="12"/>
     </row>
@@ -1978,10 +2137,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2004,388 +2163,422 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="74.25" customHeight="1">
+      <c r="A2" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" t="s" s="16">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="3">
+      <c r="G2" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" ht="32.25" customHeight="1">
+      <c r="A4" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="C4" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="D4" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="E4" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="F4" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="G4" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="H4" t="s" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" ht="56.25" customHeight="1">
-      <c r="A3" s="16">
+      <c r="I4" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="56.25" customHeight="1">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="18">
-        <v>32</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s" s="18">
+      <c r="B5" t="s" s="19">
         <v>33</v>
       </c>
-      <c r="F3" s="20">
-        <v>43466</v>
-      </c>
-      <c r="G3" t="s" s="18">
+      <c r="C5" t="s" s="20">
         <v>34</v>
-      </c>
-      <c r="H3" s="20">
-        <v>43435</v>
-      </c>
-      <c r="I3" t="s" s="18">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s" s="18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="56.05" customHeight="1">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F4" s="22">
-        <v>43831</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="H4" s="22">
-        <v>43800</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="56.05" customHeight="1">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>39</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
       </c>
-      <c r="E5" t="s" s="10">
-        <v>33</v>
+      <c r="E5" t="s" s="20">
+        <v>35</v>
       </c>
       <c r="F5" s="22">
+        <v>43466</v>
+      </c>
+      <c r="G5" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="H5" s="22">
+        <v>43435</v>
+      </c>
+      <c r="I5" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s" s="20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="56.05" customHeight="1">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F6" s="24">
+        <v>43831</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="H6" s="24">
+        <v>43800</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="56.05" customHeight="1">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24">
         <v>36526</v>
       </c>
-      <c r="G5" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G7" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H7" s="24">
         <v>36526</v>
       </c>
-      <c r="I5" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="68.05" customHeight="1">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F6" s="22">
-        <v>36526</v>
-      </c>
-      <c r="G6" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H6" s="22">
-        <v>36526</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="44.05" customHeight="1">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="9">
+      <c r="I7" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s" s="10">
         <v>43</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F7" s="22">
-        <v>36526</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H7" s="22">
-        <v>44197</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s" s="10">
-        <v>41</v>
       </c>
     </row>
     <row r="8" ht="68.05" customHeight="1">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s" s="9">
         <v>44</v>
       </c>
       <c r="C8" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F8" s="24">
+        <v>36526</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H8" s="24">
+        <v>36526</v>
+      </c>
+      <c r="I8" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="D8" s="21">
+      <c r="C9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D9" s="23">
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="E9" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F9" s="24">
+        <v>36526</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H9" s="24">
+        <v>44197</v>
+      </c>
+      <c r="I9" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="68.05" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F10" s="24">
         <v>44409</v>
       </c>
-      <c r="G8" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G10" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H10" s="24">
         <v>44409</v>
       </c>
-      <c r="I8" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" ht="68.05" customHeight="1">
-      <c r="A9" s="11">
+      <c r="I10" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="68.05" customHeight="1">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B11" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="C9" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E9" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="E11" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F11" s="24">
         <v>44409</v>
       </c>
-      <c r="G9" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G11" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H11" s="24">
         <v>44409</v>
       </c>
-      <c r="I9" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" s="11">
+      <c r="I11" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="44.05" customHeight="1">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B12" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D12" s="23">
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="E12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F12" s="24">
         <v>44409</v>
       </c>
-      <c r="G10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G12" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H12" s="24">
         <v>44409</v>
       </c>
-      <c r="I10" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s" s="10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="I12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="56.05" customHeight="1">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B13" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44409</v>
+      </c>
+      <c r="G13" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="C11" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="H13" s="24">
+        <v>44409</v>
+      </c>
+      <c r="I13" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="68.05" customHeight="1">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="D14" s="23">
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F11" s="22">
-        <v>44409</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="H11" s="22">
-        <v>44409</v>
-      </c>
-      <c r="I11" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="68.05" customHeight="1">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="E14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F14" s="24">
+        <v>36526</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="H14" s="24">
+        <v>44197</v>
+      </c>
+      <c r="I14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="68.05" customHeight="1">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D15" s="23">
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="E15" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F15" s="24">
         <v>36526</v>
       </c>
-      <c r="G12" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G15" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="H15" s="24">
         <v>44197</v>
       </c>
-      <c r="I12" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" ht="68.05" customHeight="1">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F13" s="22">
-        <v>36526</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="H13" s="22">
-        <v>44197</v>
-      </c>
-      <c r="I13" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s" s="10">
-        <v>60</v>
+      <c r="I15" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2405,16 +2598,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2428,301 +2621,329 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="68.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="88.1" customHeight="1">
+      <c r="A2" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" t="s" s="16">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s" s="3">
+      <c r="G2" t="s" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="68.25" customHeight="1">
+      <c r="A4" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="C4" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="D4" t="s" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" ht="80.25" customHeight="1">
-      <c r="A3" s="16">
+      <c r="E4" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="80.25" customHeight="1">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="17">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>69</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s" s="18">
+      <c r="B5" t="s" s="19">
         <v>70</v>
       </c>
-      <c r="G3" t="s" s="18">
+      <c r="C5" t="s" s="20">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" ht="56.05" customHeight="1">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="9">
+      <c r="D5" t="s" s="20">
         <v>72</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>77</v>
       </c>
       <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s" s="20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="56.05" customHeight="1">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="44.05" customHeight="1">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" s="11">
+      <c r="C7" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s" s="10">
+      <c r="B8" t="s" s="9">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s" s="10">
         <v>81</v>
       </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" ht="104.05" customHeight="1">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s" s="10">
+      <c r="G8" t="s" s="10">
         <v>85</v>
-      </c>
-      <c r="E7" s="21">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>82</v>
       </c>
     </row>
     <row r="9" ht="104.05" customHeight="1">
       <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="104.05" customHeight="1">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="B11" t="s" s="9">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" s="11">
+      <c r="F11" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="56.05" customHeight="1">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="B12" t="s" s="9">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="E12" s="23">
         <v>2</v>
       </c>
-      <c r="F10" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="F12" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="56.05" customHeight="1">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="B13" t="s" s="9">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="23">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" ht="104.05" customHeight="1">
-      <c r="A12" s="11">
+      <c r="F13" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="104.05" customHeight="1">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="B14" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="F12" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" s="11">
+      <c r="F14" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="B15" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F13" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" s="11">
+      <c r="F15" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="44.05" customHeight="1">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="B16" t="s" s="9">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="E16" s="23">
         <v>2</v>
       </c>
-      <c r="F14" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>108</v>
+      <c r="F16" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
